--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd84_142.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd84_142.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1259129047393799</v>
+        <v>0.2771337032318115</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001400947570800781</v>
+        <v>0.002938032150268555</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00661778450012207</v>
+        <v>0.01231789588928223</v>
       </c>
     </row>
     <row r="8">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.4590840079690127</v>
+        <v>0.4590546275326866</v>
       </c>
     </row>
     <row r="172">
@@ -1673,116 +1673,126 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>9885.93141745649</v>
+        <v>9981.931417456492</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>0.9995756131257086</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.1469738483428955</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.3078060150146484</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="L178" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="M178" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
+      <c r="N178" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd84_142.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd84_142.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2771337032318115</v>
+        <v>0.0006799697875976562</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002938032150268555</v>
+        <v>0.0005941390991210938</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01231789588928223</v>
+        <v>0.01976108551025391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 0), (0, 1), (0, 3), (1, 3), (2, 2), (2, 1), (1, 0), (0, 2), (1, 2), (2, 3), (3, 3), (3, 1), (2, 0), (3, 0)]</t>
+          <t>[[1, 1], [0, 0], [0, 1], [0, 3], [1, 3], [2, 2], [2, 1], [1, 0], [0, 2], [1, 2], [2, 3], [3, 3], [3, 1], [2, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 0), (2, 1), (2, 3), (0, 1), (0, 0), (1, 1), (1, 3), (0, 2), (1, 2), (0, 3), (3, 3), (3, 1), (2, 2), (3, 0)]</t>
+          <t>[[1, 0], [2, 0], [2, 1], [2, 3], [0, 1], [0, 0], [1, 1], [1, 3], [0, 2], [1, 2], [0, 3], [3, 3], [3, 1], [2, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.3078060150146484</v>
+        <v>0.03190088272094727</v>
       </c>
     </row>
     <row r="178">
